--- a/sources/cc_iea_product_split.xlsx
+++ b/sources/cc_iea_product_split.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\UNEP Gap Report 2024\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\UNEP Gap Report 2024\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -466,13 +466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
         <v>4962974</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">

--- a/sources/cc_iea_product_split.xlsx
+++ b/sources/cc_iea_product_split.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="38">
   <si>
     <t>country</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Fossil (other)</t>
+  </si>
+  <si>
+    <t>Bioenergy</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
         <v>28902961</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -533,7 +536,7 @@
         <v>3624663</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
         <v>9895097</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,7 +1140,7 @@
         <v>12207833</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,7 +1240,7 @@
         <v>3986924</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,7 +1260,7 @@
         <v>40301</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,6 +1338,9 @@
       </c>
       <c r="E45">
         <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
